--- a/medicine/Enfance/François_Craenhals/François_Craenhals.xlsx
+++ b/medicine/Enfance/François_Craenhals/François_Craenhals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Craenhals</t>
+          <t>François_Craenhals</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Craenhals, né le 15 novembre 1926 à Ixelles (région de Bruxelles-Capitale) et mort le 2 août 2004 à Montpellier (France), est un auteur de bande dessinée, coloriste de bande dessinée et illustrateur belge.
 Membre de l'école belge de bande dessinée et adepte de la ligne claire à la suite d'Hergé, il est connu du grand public particulièrement pour sa longue collaboration au journal Tintin, pour lequel il créa notamment Pom et Teddy et Chevalier Ardent et pour avoir été le dessinateur des 4 As.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Craenhals</t>
+          <t>François_Craenhals</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,21 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Craenhals naît le 15 novembre 1926 à Ixelles, une commune bruxelloise[1]. Enfant, il lit Junior dont il adore le dessin d'Alex Raymond et Burne Hogarth[2]. Après avoir travaillé brièvement dans l'électromécanique[3], pris des cours de dessins dispensés par l'Académie royale des beaux-arts de Bruxelles, puis réalisé quelques caricatures dans le magazine Vrai ainsi que quelques panneaux publicitaires pour le compte d'une agence gantoise, François Craenhals débute véritablement dans le dessin en illustrant pour la presse (Le Domaine de Druka dans Le Soir illustré, par exemple), alors qu'il n'a qu'une vingtaine d'années. En 1951, continuant ainsi sur sa lancée et poussé par Fernand Cheneval, il publie les aventures de Karan, une sorte de Tarzan à la franco-belge, dans le périodique belge Héroïc-Albums[4]. Ensuite, il donne vie, la même année, à Rémy et Ghislaine pour Tintin[5], en s’inspirant de romans populaires de la fin du XIXe siècle (comme ceux de Charles Dickens)[6]. Bien qu'il ne réalise que deux épisodes de cette série d'aventure mélodramatique, celle-ci lui permet de réaliser pour la première fois des histoires à suivre longues, tandis que son utilisation du lavis l'impose comme un des meilleurs dessinateurs réalistes de Tintin[6].
-Avec Pom et Teddy (1953-1965)
-En 1953, il se fait un nom en lançant la carrière de Pom et Teddy, aux éditions Le Lombard, série qui comptera bientôt sept albums et dont le dernier tome sortira en 1968, Craenhals n'ajoutera ensuite que quelques histoires courtes dérivées de la série pour les Tintin Sélection. Il dessine aussi de nombreux strips publicitaires pour Publiart qui sont publiés dans la version belge de Tintin : Grenadier Victoria - Mission dans le bled (de décembre 1954 à avril 1955), Governor - Les Aventures de Polochon, campeur modèle (de mai à juillet 1955) et Polochon - Le trappeur modèle (de mai à juillet 1956), ou dans Chez Nous (Ninette et Titi)[7].
-En parallèle, il rejoint, en 1955 l'équipe de l'hebdomadaire belge catholique Petits Belges (Zonneland en flamand), journal qui se muera d'ailleurs en Tremplin en décembre 1960, où il travaille parfois sous le pseudonyme de F. Hal et dans lequel il restera jusqu'en 1964. Pour ce journal, il créera d'ailleurs en 1958 la série : Sainte Bernadette Soubirous retraçant la vie de la célèbre sainte de Lourdes, l'album est publié la même année aux éditions Altoria / Averbode et il participe également discrètement à la série Alphonse, toujours pour Tintin, en dessinant une histoire de deux pages, Alphonse extra, sur un scénario de René Goscinny.
-Il publie également les aventures de Primus et Musette dans La Libre Belgique, de cette même année 1958 jusqu'en 1973, série qui sera reprise par la série d’albums mensuels Samedi-Jeunesse[8] à partir de 1970.
-En 1960, alors qu'il commence à se lasser de Pom et Teddy, il publie dans Tintin Aventure à Sarajevo. Cette histoire reste sans suite, l'éditeur lui ayant manifesté son peu d'enthousiasme[9]. La même année, il livre deux courts récits pour le magazine publicitaire Bonux Boy[10].
-1964 voit la naissance, chez Casterman, des aventures en bandes dessinées des 4 As, dont le dernier album sortira en 2004, et qui parurent, au préalable, sous forme de romans pour la jeunesse, écrits par Georges Chaulet et illustrés par Craenhals lui-même dans la période de sa vie où il illustra. C'est aussi durant cette période qu'il participa notamment aux séries pour la jeunesse, Nouveaux Vents et Hopi et Cati dans la collection « Farandole » des éditions Casterman[7], illustrant ainsi des textes de Endry, ainsi qu'à la revue L'Aventure de la Science.
-Avec Chevalier Ardent (1966-2001)
-1966 est l'année de création de Chevalier Ardent, série qui paraît en albums chez Casterman à partir de 1970 et qui fut créée pour Tintin. Passionné par le Moyen Âge, cadre temporel de cette série, Craenhals décidera, à partir de cette époque, de consacrer l'essentiel de son temps à cette saga qu'il poursuivra pendant plus de trente ans, et que l'on peut donc considérer comme son œuvre la plus achevée[7].
-En 1982 et 1983, tout en continuant Chevalier Ardent et Les 4 As, Craenhals adapte en bandes dessinées les aventures de Fantômette, héroïne romanesque créée par Georges Chaulet qui lui écrivit les scénarios et dont les romans parurent d'abord dans la Bibliothèque rose[11]. Quatre albums de cette série seront publiés aux éditions Hachette, le dernier tome sortira en 1985 bien que dessiné par Endry.
-En 1997, il colorise la quatrième édition de l'album érotique Epoxy sur des dessins de Paul Cuvelier et un scénario de Jean Van Hamme, l'album sortit aux éditions Claude Lefrancq.
-Son œuvre est traduite dans une soixantaine de langues[12].
-François Craenhals meurt des suites d'une opération chirurgicale, à l'âge de 77 ans, le 4 août 2004 à Montpellier[13],[14]. Inhumé à Rivières, dans le Gard, une épée de chevalerie est plantée sur sa tombe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Craenhals naît le 15 novembre 1926 à Ixelles, une commune bruxelloise. Enfant, il lit Junior dont il adore le dessin d'Alex Raymond et Burne Hogarth. Après avoir travaillé brièvement dans l'électromécanique, pris des cours de dessins dispensés par l'Académie royale des beaux-arts de Bruxelles, puis réalisé quelques caricatures dans le magazine Vrai ainsi que quelques panneaux publicitaires pour le compte d'une agence gantoise, François Craenhals débute véritablement dans le dessin en illustrant pour la presse (Le Domaine de Druka dans Le Soir illustré, par exemple), alors qu'il n'a qu'une vingtaine d'années. En 1951, continuant ainsi sur sa lancée et poussé par Fernand Cheneval, il publie les aventures de Karan, une sorte de Tarzan à la franco-belge, dans le périodique belge Héroïc-Albums. Ensuite, il donne vie, la même année, à Rémy et Ghislaine pour Tintin, en s’inspirant de romans populaires de la fin du XIXe siècle (comme ceux de Charles Dickens). Bien qu'il ne réalise que deux épisodes de cette série d'aventure mélodramatique, celle-ci lui permet de réaliser pour la première fois des histoires à suivre longues, tandis que son utilisation du lavis l'impose comme un des meilleurs dessinateurs réalistes de Tintin.
 </t>
         </is>
       </c>
@@ -537,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Craenhals</t>
+          <t>François_Craenhals</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,12 +554,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">François Craenhals était l'époux de Maggy De Prijck[15]. Cette union donna naissance à Ghislaine[15] et Pierre[16]. Puis il épousa en secondes noces Martine Boutin, coloriste[17]. À partir d'août 2001, ils vécurent à Rivières où ils gérèrent des chambres d’hôtes et créèrent un atelier d’expression artistique, tout en enseignant la bande dessinée dans des écoles et participant à des publications régionales[7]. Son fils Pierre Craenhals est actif comme peintre dans le mouvement de l'art naïf[18].
+          <t>Avec Pom et Teddy (1953-1965)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1953, il se fait un nom en lançant la carrière de Pom et Teddy, aux éditions Le Lombard, série qui comptera bientôt sept albums et dont le dernier tome sortira en 1968, Craenhals n'ajoutera ensuite que quelques histoires courtes dérivées de la série pour les Tintin Sélection. Il dessine aussi de nombreux strips publicitaires pour Publiart qui sont publiés dans la version belge de Tintin : Grenadier Victoria - Mission dans le bled (de décembre 1954 à avril 1955), Governor - Les Aventures de Polochon, campeur modèle (de mai à juillet 1955) et Polochon - Le trappeur modèle (de mai à juillet 1956), ou dans Chez Nous (Ninette et Titi).
+En parallèle, il rejoint, en 1955 l'équipe de l'hebdomadaire belge catholique Petits Belges (Zonneland en flamand), journal qui se muera d'ailleurs en Tremplin en décembre 1960, où il travaille parfois sous le pseudonyme de F. Hal et dans lequel il restera jusqu'en 1964. Pour ce journal, il créera d'ailleurs en 1958 la série : Sainte Bernadette Soubirous retraçant la vie de la célèbre sainte de Lourdes, l'album est publié la même année aux éditions Altoria / Averbode et il participe également discrètement à la série Alphonse, toujours pour Tintin, en dessinant une histoire de deux pages, Alphonse extra, sur un scénario de René Goscinny.
+Il publie également les aventures de Primus et Musette dans La Libre Belgique, de cette même année 1958 jusqu'en 1973, série qui sera reprise par la série d’albums mensuels Samedi-Jeunesse à partir de 1970.
+En 1960, alors qu'il commence à se lasser de Pom et Teddy, il publie dans Tintin Aventure à Sarajevo. Cette histoire reste sans suite, l'éditeur lui ayant manifesté son peu d'enthousiasme. La même année, il livre deux courts récits pour le magazine publicitaire Bonux Boy.
+1964 voit la naissance, chez Casterman, des aventures en bandes dessinées des 4 As, dont le dernier album sortira en 2004, et qui parurent, au préalable, sous forme de romans pour la jeunesse, écrits par Georges Chaulet et illustrés par Craenhals lui-même dans la période de sa vie où il illustra. C'est aussi durant cette période qu'il participa notamment aux séries pour la jeunesse, Nouveaux Vents et Hopi et Cati dans la collection « Farandole » des éditions Casterman, illustrant ainsi des textes de Endry, ainsi qu'à la revue L'Aventure de la Science.
 </t>
         </is>
       </c>
@@ -568,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Craenhals</t>
+          <t>François_Craenhals</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +595,133 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avec Chevalier Ardent (1966-2001)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1966 est l'année de création de Chevalier Ardent, série qui paraît en albums chez Casterman à partir de 1970 et qui fut créée pour Tintin. Passionné par le Moyen Âge, cadre temporel de cette série, Craenhals décidera, à partir de cette époque, de consacrer l'essentiel de son temps à cette saga qu'il poursuivra pendant plus de trente ans, et que l'on peut donc considérer comme son œuvre la plus achevée.
+En 1982 et 1983, tout en continuant Chevalier Ardent et Les 4 As, Craenhals adapte en bandes dessinées les aventures de Fantômette, héroïne romanesque créée par Georges Chaulet qui lui écrivit les scénarios et dont les romans parurent d'abord dans la Bibliothèque rose. Quatre albums de cette série seront publiés aux éditions Hachette, le dernier tome sortira en 1985 bien que dessiné par Endry.
+En 1997, il colorise la quatrième édition de l'album érotique Epoxy sur des dessins de Paul Cuvelier et un scénario de Jean Van Hamme, l'album sortit aux éditions Claude Lefrancq.
+Son œuvre est traduite dans une soixantaine de langues.
+François Craenhals meurt des suites d'une opération chirurgicale, à l'âge de 77 ans, le 4 août 2004 à Montpellier,. Inhumé à Rivières, dans le Gard, une épée de chevalerie est plantée sur sa tombe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Craenhals était l'époux de Maggy De Prijck. Cette union donna naissance à Ghislaine et Pierre. Puis il épousa en secondes noces Martine Boutin, coloriste. À partir d'août 2001, ils vécurent à Rivières où ils gérèrent des chambres d’hôtes et créèrent un atelier d’expression artistique, tout en enseignant la bande dessinée dans des écoles et participant à des publications régionales. Son fils Pierre Craenhals est actif comme peintre dans le mouvement de l'art naïf.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Voici la liste de la grande majorité des œuvres de François Craenhals[Note 1] :
-En tant qu'auteur complet
-Les 4 As
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste de la grande majorité des œuvres de François Craenhals[Note 1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur complet</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les 4 As
 Aventure à Sarajevo (one shot prépublié dans Tintin en 1960, du no 12 au no 31)
 Chevalier Ardent
 Pom et Teddy
@@ -600,59 +730,242 @@
 1. Le Cas étrange de Mr de Bonneval, Lombard, coll. « du Lombard », Bruxelles, 1955Scénario et dessin : François Craenhals - Couleurs : noir et blanc
 2. Le Puits 32, Lombard, coll. « du Lombard », Bruxelles, 1955Scénario et dessin : François Craenhals - Couleurs : noir et blanc
 Sensation à Lourdes
-La Vie de Sainte Bernadette, Altoria / Averbode, Averbode, 1958Scénario et dessin : François Craenhals - Couleurs : bichromie
-En tant que dessinateur
-Évangile de Marc
-Fantômette
-En tant que coloriste
-Epoxy
-Collectifs
-Pétition - À la recherche d'Oesterheld et de tant d'autres[19] !, Amnesty International, Bruxelles, novembre 1986Scénario : collectif - Dessin : collectif dont François Craenhals - Couleurs : noir et blanc
-L'Aventure du journal Tintin - 40 ans de bande dessinée[20], Le Lombard, Bruxelles, novembre 1986Scénario et couleurs : collectif - Dessin : collectif dont François Craenhals -  (ISBN 2-8036-0574-0)Participation : Pom et Teddy, Chevalier Ardent.
+La Vie de Sainte Bernadette, Altoria / Averbode, Averbode, 1958Scénario et dessin : François Craenhals - Couleurs : bichromie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>En tant que dessinateur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Évangile de Marc
+Fantômette</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>En tant que coloriste</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Epoxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pétition - À la recherche d'Oesterheld et de tant d'autres !, Amnesty International, Bruxelles, novembre 1986Scénario : collectif - Dessin : collectif dont François Craenhals - Couleurs : noir et blanc
+L'Aventure du journal Tintin - 40 ans de bande dessinée, Le Lombard, Bruxelles, novembre 1986Scénario et couleurs : collectif - Dessin : collectif dont François Craenhals -  (ISBN 2-8036-0574-0)Participation : Pom et Teddy, Chevalier Ardent.
 Natacha - Spécial 20e anniversaire - Nostalgia, Marsu Productions, Monaco, février 1990Scénario : collectif - Dessin : collectif dont François Craenhals - Couleurs : quadrichromie -  (ISBN 2-907159-04-6)Participation : Hommage à François Walthéry (1 planche).
-Téléthon[21], Le Lombard, Bruxelles, juin 1990Scénario et couleurs : collectif - Dessin : collectif dont François Craenhals -  (ISBN 2-8036-0894-4).
-Illustrations
-Fantastique Atome, Jean-Claude Pasquiez (texte), avec Endry (illustration), Casterman, coll. « L'Aventure de la science », Tournai, 1974 (OCLC 252024682)
+Téléthon, Le Lombard, Bruxelles, juin 1990Scénario et couleurs : collectif - Dessin : collectif dont François Craenhals -  (ISBN 2-8036-0894-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fantastique Atome, Jean-Claude Pasquiez (texte), avec Endry (illustration), Casterman, coll. « L'Aventure de la science », Tournai, 1974 (OCLC 252024682)
 Prodigieux cosmos, Jean-Claude Pasquiez avec André Koecklenbergh (texte), avec Endry (illustration), Casterman, coll. « L'Aventure de la science », Tournai, 1974  (ISBN 2203146028) (OCLC 462660806)
 Au cœur du vivant, Jean-Claude Pasquiez (texte), avec Endry (illustration), Casterman, coll. « L'Aventure de la science », Tournai, 1977  (ISBN 2203146036) (OCLC 319877461)
 Fabuleuse évolution, Jean-Claude Pasquiez avec Jean Demal (texte), François Craenhals (illustration), Casterman, coll. « L'Aventure de la science », Tournai, 1979  (ISBN 2203146028) (OCLC 1280705249)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Craenhals</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Distinctions
-1991 :  Chevalier de l'ordre de Léopold en décembre comme auteur ayant plus de vingt ans de carrière[22].
-Prix et récompenses
-1973 :  prix Saint-Michel du meilleur dessinateur réaliste pour La Dame des sables (Chevalier Ardent)[17] ;
-1976 :  prix Saint-Michel du meilleur dessin épique pour Chevalier Ardent[17] ;
-1985 :  prix Géant de la BD décerné par la Chambre belge des experts en bande dessinée[23] pour l'ensemble de l'œuvre ;
-1990 :  prix d'honneur au Festival de bande dessinée de Middelkerke (nl) à Middelkerke pour Chevalier Ardent[24] ;
-1995 :  prix Honoris causa pour l'ensemble de l'œuvre[17].</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1991 :  Chevalier de l'ordre de Léopold en décembre comme auteur ayant plus de vingt ans de carrière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>François_Craenhals</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Craenhals</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1973 :  prix Saint-Michel du meilleur dessinateur réaliste pour La Dame des sables (Chevalier Ardent) ;
+1976 :  prix Saint-Michel du meilleur dessin épique pour Chevalier Ardent ;
+1985 :  prix Géant de la BD décerné par la Chambre belge des experts en bande dessinée pour l'ensemble de l'œuvre ;
+1990 :  prix d'honneur au Festival de bande dessinée de Middelkerke (nl) à Middelkerke pour Chevalier Ardent ;
+1995 :  prix Honoris causa pour l'ensemble de l'œuvre.</t>
         </is>
       </c>
     </row>
